--- a/data.xlsx
+++ b/data.xlsx
@@ -472,7 +472,9 @@
           <t>洛哥</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>93.74801969735472</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -483,7 +485,9 @@
           <t>云上珠宝.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>91.79223300453157</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -494,7 +498,9 @@
           <t>王小川（川哥酒馆）</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>85.71563050906822</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -505,7 +511,9 @@
           <t>游鹿鹿很认真</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>92.38725435594226</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -516,7 +524,9 @@
           <t>韩彬彬大号｜12.12决战双十二</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>97.13497046722227</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -527,7 +537,9 @@
           <t>新疆和田玉老郑</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>92.51384461031904</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -538,7 +550,9 @@
           <t>柴碧云</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>86.73218758426825</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -549,7 +563,9 @@
           <t>朱瓜瓜</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>89.05385578833986</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -560,7 +576,9 @@
           <t>溶溶RONGRONG10号早9开业大上新</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>97.06399302896887</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">

--- a/data.xlsx
+++ b/data.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98.66458555534821</v>
+        <v>98.66458555534822</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>93.74801969735472</v>
+        <v>93.74801969735471</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>85.71563050906822</v>
+        <v>85.71563050906823</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>92.38725435594226</v>
+        <v>92.38725435594225</v>
       </c>
     </row>
     <row r="7">
@@ -576,9 +576,7 @@
           <t>溶溶RONGRONG10号早9开业大上新</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>97.06399302896887</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">

--- a/data.xlsx
+++ b/data.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98.66458555534822</v>
+        <v>98.66458555534821</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>93.74801969735471</v>
+        <v>93.74801969735472</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>92.38725435594225</v>
+        <v>92.38725435594226</v>
       </c>
     </row>
     <row r="7">
@@ -576,7 +576,9 @@
           <t>溶溶RONGRONG10号早9开业大上新</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>97.06399302896887</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -587,7 +589,9 @@
           <t>谢宁</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>90.73003715060986</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -598,7 +602,9 @@
           <t>与辉同行</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>91.09515509914273</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -609,7 +615,9 @@
           <t>刘媛媛12号新西兰贵妇虾青素总部溯源</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>88.05111826437017</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -620,7 +628,9 @@
           <t>花小磊12月8号9号回归首秀官宣</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>92.02223963896616</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -631,7 +641,9 @@
           <t>Romi小姐姐</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>107.3334382149422</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -642,7 +654,9 @@
           <t>老贝_Bay</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>90.87037572978353</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -653,7 +667,9 @@
           <t>YICHEN服饰</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>95.89161929245654</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -664,7 +680,9 @@
           <t>蔡磊破冰驿站</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>92.62338534908723</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -675,7 +693,9 @@
           <t>外贸家z.blues（每周早八上新）</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>90.19808566630289</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -686,7 +706,9 @@
           <t>香香生活号（羽绒服年度最大破价）</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>86.6734756552307</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -697,7 +719,9 @@
           <t>澳门COCO姐</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>103.1633472282239</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -708,7 +732,9 @@
           <t>叶可可🐳12号皮草节来啦🤗</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>95.84616419480697</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -719,7 +745,9 @@
           <t>朱梓骁10号早8点kynd虾青素年前破价</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>93.42542643146588</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -730,7 +758,9 @@
           <t>豪哥鉴宝珠宝精选</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>113.8061747895685</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
